--- a/outputs-HGR-r202/test-g__Pediococcus_split_pruned.xlsx
+++ b/outputs-HGR-r202/test-g__Pediococcus_split_pruned.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Row</t>
   </si>
@@ -26,6 +26,90 @@
   </si>
   <si>
     <t>even_MAG-GUT27420.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT3427.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT3435.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT46722.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT49010.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT89102.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT89162.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT89246.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT89309.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT89335.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT89577.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT89608.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT89735.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT89784.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT89815.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT89836.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT89852.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT90020.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT90054.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT90362.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT90441.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT90671.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT90682.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT90730.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT90775.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT90941.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT90963.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT91014.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT91566.fa</t>
   </si>
   <si>
     <t>1-s__Pediococcus acidilactici</t>
@@ -79,10 +163,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C32"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" customWidth="true"/>
+    <col min="1" max="1" width="22.42578125" customWidth="true"/>
     <col min="2" max="2" width="26.28515625" customWidth="true"/>
     <col min="3" max="3" width="10.28515625" customWidth="true"/>
   </cols>
@@ -92,10 +176,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2">
@@ -131,6 +215,314 @@
         <v>1</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/outputs-HGR-r202/test-g__Pediococcus_split_pruned.xlsx
+++ b/outputs-HGR-r202/test-g__Pediococcus_split_pruned.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="34">
   <si>
     <t>Row</t>
   </si>
@@ -136,7 +136,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -146,14 +146,50 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -172,352 +208,352 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="19" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="19" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="19" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="19" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="19" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="19" t="s">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="19" t="s">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="19" t="s">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="19" t="s">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="19" t="s">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="19" t="s">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="19" t="s">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="19" t="s">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="19" t="s">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="19" t="s">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="19" t="s">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="19" t="s">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="19" t="s">
         <v>18</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="19" t="s">
         <v>19</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="19" t="s">
         <v>20</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="19" t="s">
         <v>21</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="19" t="s">
         <v>22</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="19" t="s">
         <v>23</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="19" t="s">
         <v>24</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="19" t="s">
         <v>25</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="19" t="s">
         <v>26</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="19" t="s">
         <v>27</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="19" t="s">
         <v>28</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="19" t="s">
         <v>29</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="19" t="s">
         <v>30</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="19" t="s">
         <v>31</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32">
         <v>1</v>

--- a/outputs-HGR-r202/test-g__Pediococcus_split_pruned.xlsx
+++ b/outputs-HGR-r202/test-g__Pediococcus_split_pruned.xlsx
@@ -14,32 +14,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Row</t>
   </si>
   <si>
-    <t>even_MAG-GUT2019.fa</t>
-  </si>
-  <si>
-    <t>even_MAG-GUT2060.fa</t>
-  </si>
-  <si>
-    <t>even_MAG-GUT27420.fa</t>
-  </si>
-  <si>
-    <t>even_MAG-GUT3427.fa</t>
-  </si>
-  <si>
-    <t>even_MAG-GUT3435.fa</t>
-  </si>
-  <si>
-    <t>even_MAG-GUT46722.fa</t>
-  </si>
-  <si>
-    <t>even_MAG-GUT49010.fa</t>
-  </si>
-  <si>
     <t>even_MAG-GUT89102.fa</t>
   </si>
   <si>
@@ -58,9 +37,6 @@
     <t>even_MAG-GUT89577.fa</t>
   </si>
   <si>
-    <t>even_MAG-GUT89608.fa</t>
-  </si>
-  <si>
     <t>even_MAG-GUT89735.fa</t>
   </si>
   <si>
@@ -70,15 +46,9 @@
     <t>even_MAG-GUT89815.fa</t>
   </si>
   <si>
-    <t>even_MAG-GUT89836.fa</t>
-  </si>
-  <si>
     <t>even_MAG-GUT89852.fa</t>
   </si>
   <si>
-    <t>even_MAG-GUT90020.fa</t>
-  </si>
-  <si>
     <t>even_MAG-GUT90054.fa</t>
   </si>
   <si>
@@ -88,18 +58,9 @@
     <t>even_MAG-GUT90441.fa</t>
   </si>
   <si>
-    <t>even_MAG-GUT90671.fa</t>
-  </si>
-  <si>
-    <t>even_MAG-GUT90682.fa</t>
-  </si>
-  <si>
     <t>even_MAG-GUT90730.fa</t>
   </si>
   <si>
-    <t>even_MAG-GUT90775.fa</t>
-  </si>
-  <si>
     <t>even_MAG-GUT90941.fa</t>
   </si>
   <si>
@@ -107,9 +68,6 @@
   </si>
   <si>
     <t>even_MAG-GUT91014.fa</t>
-  </si>
-  <si>
-    <t>even_MAG-GUT91566.fa</t>
   </si>
   <si>
     <t>1-s__Pediococcus acidilactici</t>
@@ -136,7 +94,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -146,50 +104,14 @@
     </border>
     <border/>
     <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -199,7 +121,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C18"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.42578125" customWidth="true"/>
@@ -208,18 +130,18 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>33</v>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -230,7 +152,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -241,7 +163,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -252,7 +174,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -263,7 +185,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -274,7 +196,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B7">
@@ -285,7 +207,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B8">
@@ -296,7 +218,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B9">
@@ -307,7 +229,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B10">
@@ -318,7 +240,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B11">
@@ -329,7 +251,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B12">
@@ -340,7 +262,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B13">
@@ -351,7 +273,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B14">
@@ -362,7 +284,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B15">
@@ -373,7 +295,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B16">
@@ -384,7 +306,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B17">
@@ -395,167 +317,13 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-      <c r="C32">
         <v>1</v>
       </c>
     </row>

--- a/outputs-HGR-r202/test-g__Pediococcus_split_pruned.xlsx
+++ b/outputs-HGR-r202/test-g__Pediococcus_split_pruned.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Row</t>
   </si>
@@ -88,10 +88,16 @@
     <t>even_MAG-GUT90441.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT90671.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT90682.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT90730.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT90775.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT90941.fa</t>
@@ -163,7 +169,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C34"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.42578125" customWidth="true"/>
@@ -176,10 +182,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2">
@@ -523,6 +529,28 @@
         <v>1</v>
       </c>
     </row>
+    <row r="33">
+      <c r="A33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>